--- a/Datos/Anuario2024/050104_AnalisisAguas.xlsx
+++ b/Datos/Anuario2024/050104_AnalisisAguas.xlsx
@@ -1,72 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22050" windowHeight="9885" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="9885"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="8" r:id="rId1"/>
+    <sheet name="1" sheetId="7" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId94" roundtripDataSignature="AMtx7mgfiKszfPEy7onY9cFvSTpsvBBNTQ=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+  <si>
+    <t>Control y toma de muestras</t>
+  </si>
+  <si>
+    <t>Determinaciones in situ</t>
+  </si>
+  <si>
+    <t>Agua de abastecimiento de la red de València</t>
+  </si>
+  <si>
+    <t>Agua de consumo</t>
+  </si>
+  <si>
+    <t>Agua de otros abastecimientos y pozos</t>
+  </si>
+  <si>
+    <t>Agua de piscinas</t>
+  </si>
+  <si>
+    <t>Controles extraordinarios</t>
+  </si>
+  <si>
+    <t>Campaña Feria de Navidad</t>
+  </si>
+  <si>
+    <t>Campaña de Fallas</t>
+  </si>
+  <si>
+    <t>ANÁLISIS DE AGUAS</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Sanidad y Consumo. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>1. Análisis de aguas. 2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -108,111 +161,52 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,206 +407,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="26.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS DE AGUAS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="35.7109375" customWidth="1" min="1" max="1"/>
-    <col width="16.7109375" customWidth="1" min="2" max="3"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="inlineStr">
-        <is>
-          <t>1. Análisis de aguas. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="1" t="n"/>
-    </row>
-    <row r="3" ht="28.5" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Control y toma de muestras</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Determinaciones in situ</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="9" t="inlineStr">
-        <is>
-          <t>Agua de abastecimiento de la red de València</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="n">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
         <v>357</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6">
         <v>1025</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>Agua de consumo</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
         <v>433</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="10">
         <v>1169</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Agua de otros abastecimientos y pozos</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
         <v>76</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>Agua de piscinas</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
         <v>234</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="7">
         <v>310</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Controles extraordinarios</t>
-        </is>
-      </c>
-      <c r="B8" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>Campaña de Fallas</t>
-        </is>
-      </c>
-      <c r="B9" s="13" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="13">
         <v>186</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Campaña Feria de Navidad</t>
-        </is>
-      </c>
-      <c r="B10" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Sanidad y Consumo. Ayuntamiento de València.</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>